--- a/biology/Botanique/Ipomoea_hederacea/Ipomoea_hederacea.xlsx
+++ b/biology/Botanique/Ipomoea_hederacea/Ipomoea_hederacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ipomoea hederacea est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire du Mexique. C'est une plante herbacée annuelle, grimpante, aux tiges volubiles, à fleurs bleues. Les graines sont utilisées pour leur propriétés médicinales[2]. La plante est une mauvaise herbe des cultures, classée comme envahissante dans certains pays, notamment les États-Unis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea hederacea est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire du Mexique. C'est une plante herbacée annuelle, grimpante, aux tiges volubiles, à fleurs bleues. Les graines sont utilisées pour leur propriétés médicinales. La plante est une mauvaise herbe des cultures, classée comme envahissante dans certains pays, notamment les États-Unis.
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (26 janvier 2020)[3] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (26 janvier 2020) :
 Batatas setosa (Ker Gawl.) Lindl.
 Calonyction campanulatum Hallier f.
 Calonyction pavonii (Choisy) Hallier f.
@@ -524,12 +541,12 @@
 Convolvulus setosus (Ker Gawl.) Spreng.
 Convolvulus tomentosus Vell.
 Gomphipus setosus (Ker Gawl.) Raf.
-Ipomoea barbigera Sweet[4]
+Ipomoea barbigera Sweet
 Ipomoea cuspidata Ruiz &amp; Pav.
 Ipomoea desertorum House
-Ipomoea hederacea var. integriuscula A. Gray[5]
+Ipomoea hederacea var. integriuscula A. Gray
 Ipomoea hederacea (L.) Jacq.
-Ipomoea hirsutula auct. non Jacq. f.[5]
+Ipomoea hirsutula auct. non Jacq. f.
 Ipomoea longicuspis Meisn.
 Ipomoea melanotricha Brandegee
 Ipomoea nil var. setosa (Ker Gawl.) Boerl.
@@ -537,14 +554,49 @@
 Ipomoea scabra Forssk.
 Ipomoea trichocalyx Steud.
 Ipomoea vaniotiana H.Lév.
-Pharbitis barbigera (Sweet) G. Don[4]
+Pharbitis barbigera (Sweet) G. Don
 Pharbitis cuspidata (Ruiz &amp; Pav.) G. Don
 Pharbitis githaginea Hochst.
-Pharbitis hederacea (Jacq.) Choisy[5]
-Pharbitis hederacea (L.) Choisy [4]
+Pharbitis hederacea (Jacq.) Choisy
+Pharbitis hederacea (L.) Choisy 
 Pharbitis nil (L.) Choisy
-Liste des variétés
-Selon NCBI  (26 janvier 2020)[6] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ipomoea_hederacea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ipomoea_hederacea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (26 janvier 2020) :
 Ipomoea hederacea var. integriuscula A.Gray, 1886</t>
         </is>
       </c>
